--- a/Docs/Testing (TES)/Test_Cases/TS_About_Info.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_About_Info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="112">
   <si>
     <t>N</t>
   </si>
@@ -273,9 +273,6 @@
     <t>1. В поле  "Add Personal Information" ввести текст длиной меньше либо равно 500 символов и нажать кнопку "Save"                          2. Убедиться, что мы вернулись на страницу http://www.vashchenko.ru/аbout_author" и в полях "Select Photo", "Add Personal Information", "Contact" осталась информация, которую мы сохранили                                                         3. Убедиться, что на странице http://vashchenko.ru/about изменилась информация об авторе на ту, которую мы ввели и сохранили</t>
   </si>
   <si>
-    <t>1. В поле "Contact" ввести адрес не соотвествующий правилам написания e-mail, определенным RFC                                                       2. Нажать кнопку "Save"                                                                                                   3. Убедиться, что вышло сообщение "Email address is invalid. Please, correct the field “Contact”" и кнопка "ОК"                                             4. Убедиться, что мы вернулись на страницу http://www.vashchenko.ru/аbout_author и поле "Contact" пустое, а в остальных полях информация не изменилась</t>
-  </si>
-  <si>
     <t>1. В поле "Contact" ввести адрес соотвествующий правилам написания e-mail, определенным RFC                                                       2. Нажать кнопку "Save"                                                                                                   3. Убедиться, что мы вернулись на страницу http://www.vashchenko.ru/аbout_author" и в полях "Select Photo", "Add Personal Information", "Contact" осталась информация, которую мы сохранили</t>
   </si>
   <si>
@@ -307,6 +304,54 @@
   </si>
   <si>
     <t>Info</t>
+  </si>
+  <si>
+    <t>Zazulya</t>
+  </si>
+  <si>
+    <t>ver 1.0</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Pass                              3. Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>1. Blocked                      2. Blocked                        3. Blocked                      4. Blocked</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>1. Blocked                      2. Blocked</t>
+  </si>
+  <si>
+    <t>1. Fail                               2. Blocked                        3. Blocked                      4. Blocked</t>
+  </si>
+  <si>
+    <t>1. Blocked                      2. Blocked                        3. Blocked                      4. Blocked                      5. Blocked</t>
+  </si>
+  <si>
+    <t>1. Blocked                      2. Fail</t>
+  </si>
+  <si>
+    <t>1. Blocked                      2. Pass                             3. Pass</t>
+  </si>
+  <si>
+    <t>1. В поле "Contact" ввести адрес не соотвествующий правилам написания e-mail, определенным RFC                                                       2. Нажать кнопку "Save"                                                                                                   3. Убедиться, что вышло сообщение о некорректно введенном e-mail                                                                                                                          4. Убедиться, что мы вернулись на страницу http://www.vashchenko.ru/аbout_author и поле "Contact" пустое, а в остальных полях информация не изменилась</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Blocked                      3. Pass                             4. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Blocked                      3. Pass</t>
   </si>
 </sst>
 </file>
@@ -403,14 +448,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -424,28 +462,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -478,6 +506,23 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -589,33 +634,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица1" displayName="Таблица1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица1" displayName="Таблица1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:F21"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="N" dataDxfId="17"/>
-    <tableColumn id="2" name="Test ID" dataDxfId="16"/>
-    <tableColumn id="3" name="Test description" dataDxfId="1"/>
-    <tableColumn id="4" name="Product" dataDxfId="15"/>
-    <tableColumn id="5" name="Requirement" dataDxfId="3"/>
-    <tableColumn id="7" name="Test steps" dataDxfId="0"/>
+    <tableColumn id="1" name="N" dataDxfId="16"/>
+    <tableColumn id="2" name="Test ID" dataDxfId="15"/>
+    <tableColumn id="3" name="Test description" dataDxfId="14"/>
+    <tableColumn id="4" name="Product" dataDxfId="13"/>
+    <tableColumn id="5" name="Requirement" dataDxfId="12"/>
+    <tableColumn id="7" name="Test steps" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I21"/>
   <tableColumns count="9">
-    <tableColumn id="2" name="N" dataDxfId="12"/>
-    <tableColumn id="3" name="Test ID" dataDxfId="11"/>
-    <tableColumn id="5" name="Product" dataDxfId="10"/>
-    <tableColumn id="6" name="Requirement" dataDxfId="9"/>
-    <tableColumn id="7" name="Tester name" dataDxfId="8"/>
-    <tableColumn id="8" name="Test steps" dataDxfId="7"/>
-    <tableColumn id="9" name="Result" dataDxfId="6"/>
-    <tableColumn id="10" name="Ticket ID" dataDxfId="5"/>
-    <tableColumn id="11" name="System" dataDxfId="4"/>
+    <tableColumn id="2" name="N" dataDxfId="8"/>
+    <tableColumn id="3" name="Test ID" dataDxfId="7"/>
+    <tableColumn id="5" name="Product" dataDxfId="6"/>
+    <tableColumn id="6" name="Requirement" dataDxfId="5"/>
+    <tableColumn id="7" name="Tester name" dataDxfId="4"/>
+    <tableColumn id="8" name="Test steps" dataDxfId="3"/>
+    <tableColumn id="9" name="Result" dataDxfId="2"/>
+    <tableColumn id="10" name="Ticket ID" dataDxfId="1"/>
+    <tableColumn id="11" name="System" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -911,7 +956,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,7 +1002,7 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -975,7 +1020,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>23</v>
@@ -995,7 +1040,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>26</v>
@@ -1015,7 +1060,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>29</v>
@@ -1035,9 +1080,9 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1055,9 +1100,9 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -1075,7 +1120,7 @@
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>36</v>
@@ -1095,7 +1140,7 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>36</v>
@@ -1115,7 +1160,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>36</v>
@@ -1135,7 +1180,7 @@
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>36</v>
@@ -1155,7 +1200,7 @@
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>36</v>
@@ -1175,7 +1220,7 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>36</v>
@@ -1195,7 +1240,7 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>36</v>
@@ -1215,9 +1260,9 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -1235,9 +1280,9 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1255,13 +1300,13 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>57</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -1275,13 +1320,13 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>60</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1295,9 +1340,9 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>63</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -1315,13 +1360,13 @@
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>66</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1335,13 +1380,13 @@
         <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1354,39 +1399,39 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" s="4"/>
       <c r="D24" s="7"/>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
-        <v>90</v>
+      <c r="B25" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="D25" s="7"/>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
-        <v>91</v>
+      <c r="B26" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="D26" s="7"/>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
-        <v>92</v>
+      <c r="B27" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="D27" s="7"/>
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
-        <v>93</v>
+      <c r="B28" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="20"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1405,8 +1450,8 @@
       <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>94</v>
+      <c r="C31" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="D31" s="7"/>
     </row>
@@ -1442,30 +1487,30 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="12"/>
+      <c r="C47" s="10"/>
     </row>
     <row r="48" spans="1:4" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="10"/>
-      <c r="D50" s="11"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="14"/>
+      <c r="C52" s="11"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="14"/>
+      <c r="C54" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1537,17 +1582,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
@@ -1584,16 +1630,555 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing (TES)/Test_Cases/TS_About_Info.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_About_Info.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="15270" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тестовые ситуации" sheetId="1" r:id="rId1"/>
     <sheet name="Тестирование" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="118">
   <si>
     <t>N</t>
   </si>
@@ -297,9 +297,6 @@
     <t>В поле "Contact" ввести корректный e-mail, нажать на кнопку "Save" убедиться, что появилось сообщение о успешном сохранении и нажать на "ОК"</t>
   </si>
   <si>
-    <t>1. Корректно изменить данные влюбом поле для ввода                                                                            2. Нажать на любую вкладку и убедиться, что система выдаст сообщение "If you continue any unsaved data will be lost. Do you want to continue?" и кнопки "Cancel", "Continue"</t>
-  </si>
-  <si>
     <t>Рисунок 2</t>
   </si>
   <si>
@@ -352,6 +349,27 @@
   </si>
   <si>
     <t>1. Pass                             2. Blocked                      3. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Fail</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Pass                              3. Pass                             4. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Fail                               3. Fail                               4. Fail</t>
+  </si>
+  <si>
+    <t>1. Pass                             2. Fail                               3. Pass                               4. Pass</t>
+  </si>
+  <si>
+    <t>1. Корректно изменить данные в любом поле для ввода                                                                            2. Нажать на любую вкладку и убедиться, что система выдаст сообщение "If you continue any unsaved data will be lost. Do you want to continue?" и кнопки "Cancel", "Continue"</t>
+  </si>
+  <si>
+    <t>1. Fail                               2. Blocked                        3. Blocked                      4. Blocked                      5. Blocked</t>
+  </si>
+  <si>
+    <t>v 1.2</t>
   </si>
 </sst>
 </file>
@@ -423,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -462,6 +480,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -649,8 +679,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I21" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I41" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I41"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
@@ -955,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1050,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>23</v>
@@ -1040,7 +1070,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>26</v>
@@ -1060,7 +1090,7 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>29</v>
@@ -1080,7 +1110,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>31</v>
@@ -1100,7 +1130,7 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>33</v>
@@ -1120,7 +1150,7 @@
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>36</v>
@@ -1140,7 +1170,7 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>36</v>
@@ -1160,7 +1190,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>36</v>
@@ -1180,7 +1210,7 @@
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>36</v>
@@ -1200,7 +1230,7 @@
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>36</v>
@@ -1220,7 +1250,7 @@
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>36</v>
@@ -1240,7 +1270,7 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>36</v>
@@ -1260,7 +1290,7 @@
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>51</v>
@@ -1280,7 +1310,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>54</v>
@@ -1300,13 +1330,13 @@
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>57</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -1320,7 +1350,7 @@
         <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>60</v>
@@ -1340,7 +1370,7 @@
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>63</v>
@@ -1360,7 +1390,7 @@
         <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>66</v>
@@ -1380,7 +1410,7 @@
         <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>69</v>
@@ -1451,7 +1481,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D31" s="7"/>
     </row>
@@ -1487,23 +1517,23 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="10"/>
     </row>
     <row r="48" spans="1:4" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
@@ -1582,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1623,7 @@
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
@@ -1644,17 +1674,17 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1665,25 +1695,25 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -1694,25 +1724,25 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
@@ -1723,23 +1753,23 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
@@ -1750,23 +1780,23 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
@@ -1777,23 +1807,23 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -1804,25 +1834,25 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -1833,23 +1863,23 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -1860,23 +1890,23 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -1887,23 +1917,23 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -1914,23 +1944,23 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -1941,23 +1971,23 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
@@ -1968,23 +1998,23 @@
         <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1995,25 +2025,25 @@
         <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>51</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2024,23 +2054,23 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -2051,23 +2081,23 @@
         <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -2078,23 +2108,23 @@
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2105,25 +2135,25 @@
         <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2134,23 +2164,23 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -2161,29 +2191,570 @@
         <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>97</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
